--- a/WebScraping/GOLab_referencia.xlsx
+++ b/WebScraping/GOLab_referencia.xlsx
@@ -14,139 +14,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Manchetes</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Proyecta Tu Futuro [Plan Your Future] - Buenos Aires Youth Employability SIB</t>
-  </si>
-  <si>
-    <t>Aspire Social Impact Bond Adelaide</t>
-  </si>
-  <si>
-    <t>Benevolent Society Social Benefit Bond (New South Wales)</t>
-  </si>
-  <si>
-    <t>Journey to Social Inclusion (Victoria)</t>
-  </si>
-  <si>
-    <t>New South Wales Newpin Social Benefit Bond</t>
-  </si>
-  <si>
-    <t>On TRACC Social Impact Investment (New South Wales)</t>
-  </si>
-  <si>
-    <t>Resolve Social Benefit Bond (New South Wales)</t>
-  </si>
-  <si>
-    <t>The Youth CONNECT Social Benefit Bond (Queensland)</t>
-  </si>
-  <si>
-    <t>YouthChoices Social Benefit Bond (Queensland)</t>
-  </si>
-  <si>
-    <t>PERSPEKTIVE: ARBEIT - Ökonomisches und soziales empowerment von gewaltbetroffenen Frauen (Perspective: Work - Economic and social empowerment for women affected by violence)</t>
-  </si>
-  <si>
-    <t>Duo for a job</t>
-  </si>
-  <si>
-    <t>BeCode youth employment (Antwerp)</t>
-  </si>
-  <si>
-    <t>Back on Track</t>
-  </si>
-  <si>
-    <t>Cambodia Rural Sanitation Development Impact Bond</t>
-  </si>
-  <si>
-    <t>Cameroon Cataract Bond</t>
-  </si>
-  <si>
-    <t>Mother Teresa Middle School</t>
-  </si>
-  <si>
-    <t>Community Hypertension Pervention Initiative</t>
-  </si>
-  <si>
-    <t>Essential Skills Social Finance (ESSF) Pilot Project</t>
-  </si>
-  <si>
-    <t>Sweet Dreams SIB</t>
-  </si>
-  <si>
-    <t>Programa Primero Lee [Read First Program] - Children literary development Impact Bond</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0001/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0002/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0003/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0004/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0005/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0006/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0007/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0008/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0009/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0010/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0011/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0012/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0013/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0014/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0016/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0017/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0018/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0019/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0020/</t>
-  </si>
-  <si>
-    <t>https://golab.bsg.ox.ac.uk/knowledge-bank/indigo-data-and-visualisation/impact-bond-dataset-v2/INDIGO-POJ-0021/</t>
+    <t>Better Careers in Fresno</t>
+  </si>
+  <si>
+    <t>CACHI</t>
+  </si>
+  <si>
+    <t>Better Careers Design Group</t>
+  </si>
+  <si>
+    <t>Casey Foundation: Youth &amp; Young Adult Post-Secondary Success</t>
+  </si>
+  <si>
+    <t>uAspire PFS Project</t>
+  </si>
+  <si>
+    <t>SIF Workforce: Boston</t>
+  </si>
+  <si>
+    <t>Strong Start Pay for Success</t>
+  </si>
+  <si>
+    <t>SIF Workforce: Austin</t>
+  </si>
+  <si>
+    <t>NYC Vets</t>
+  </si>
+  <si>
+    <t>LA County DMH Project</t>
+  </si>
+  <si>
+    <t>Alameda County Recidivism</t>
+  </si>
+  <si>
+    <t>Lane County Permanent Supportive Housing</t>
+  </si>
+  <si>
+    <t>Power to Decide</t>
+  </si>
+  <si>
+    <t>Empowering Families – Massachusetts</t>
+  </si>
+  <si>
+    <t>LA County Just in Reach</t>
+  </si>
+  <si>
+    <t>Expanded Subsidized Employment (ESE) Project</t>
+  </si>
+  <si>
+    <t>Outpatient Treatment on Demand</t>
+  </si>
+  <si>
+    <t>Cuyahoga County Lead (Cleveland)</t>
+  </si>
+  <si>
+    <t>Washington Home Visiting Services Account (HVSA) PFS</t>
+  </si>
+  <si>
+    <t>Administrative Data Pilot: Washington</t>
+  </si>
+  <si>
+    <t>SIF Workforce: Denver</t>
+  </si>
+  <si>
+    <t>Administrative Data Pilot: Santa Cruz</t>
+  </si>
+  <si>
+    <t>Administrative Data Pilot: San Diego</t>
+  </si>
+  <si>
+    <t>Mecklenburg County Pre-K</t>
+  </si>
+  <si>
+    <t>Lumina / Goodwill Excel Center Adult Charter School Feasibility</t>
+  </si>
+  <si>
+    <t>Empowering Families – Broward County</t>
+  </si>
+  <si>
+    <t>Empowering Families – North Carolina</t>
+  </si>
+  <si>
+    <t>Empowering Families – Iowa</t>
+  </si>
+  <si>
+    <t>Empowering Families – Connecticut</t>
+  </si>
+  <si>
+    <t>Empowering Families – Colorado</t>
+  </si>
+  <si>
+    <t>Cuyahoga County Pre-K</t>
+  </si>
+  <si>
+    <t>Salt Lake City PFS: Persistently Homeless Project</t>
+  </si>
+  <si>
+    <t>Salt Lake City PFS: Recidivism</t>
+  </si>
+  <si>
+    <t>Oregon PFS: Marion &amp; Multnomah Counties</t>
+  </si>
+  <si>
+    <t>Oregon Youth Development Pay for Success</t>
+  </si>
+  <si>
+    <t>Oregon Pay for Performance</t>
+  </si>
+  <si>
+    <t>Bridges Maternal Child Health Network</t>
+  </si>
+  <si>
+    <t>Alameda County Asthma PFS Initiative</t>
+  </si>
+  <si>
+    <t>Oregon Early Childhood</t>
+  </si>
+  <si>
+    <t>Virginia Pay for Success</t>
+  </si>
+  <si>
+    <t>Austin/Travis County Health and Human Services</t>
+  </si>
+  <si>
+    <t>Massachusetts Juvenile Justice PFS Initiative</t>
+  </si>
+  <si>
+    <t>Project Welcome Home</t>
+  </si>
+  <si>
+    <t>Cuyahoga County Partnering for Family Success Program</t>
+  </si>
+  <si>
+    <t>City/County of San Francisco</t>
+  </si>
+  <si>
+    <t>National Council on Crime and Delinquency</t>
+  </si>
+  <si>
+    <t>First Five Los Angeles</t>
+  </si>
+  <si>
+    <t>County of Los Angeles Blueprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +182,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,22 +216,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,203 +518,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>